--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -1,24 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GOInterop\git\esavi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3815D9A6-DE1D-43E1-963F-FDAAEAD78887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Questionário" sheetId="1" r:id="rId4"/>
+    <sheet name="Questionário" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="J1">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">http://ec2-54-236-53-161.compute-1.amazonaws.com:8080/fhir/ValueSet/$expand?url=http://paho.org/esavi/ValueSet/ProfesionalNotificadorVS
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>http://ec2-54-236-53-161.compute-1.amazonaws.com:8080/fhir/ValueSet/$expand?url=http://paho.org/esavi/ValueSet/ProfesionalNotificadorVS
 {
 "code": "1",
 "display": "Médico"
@@ -44,6 +60,7 @@
 "display": "No definido por el usuario"
 }
 	-Italo Macêdo</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -51,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
   <si>
     <t>Questionario</t>
   </si>
@@ -167,6 +184,9 @@
     <t>Idade gestacional</t>
   </si>
   <si>
+    <t>codigoMonitoreoPosteriorVacuna</t>
+  </si>
+  <si>
     <t>Nome medicamento</t>
   </si>
   <si>
@@ -368,51 +388,15 @@
     <t>Referencia identificador vacina</t>
   </si>
   <si>
-    <t>Caso 1</t>
-  </si>
-  <si>
     <t>BRA</t>
   </si>
   <si>
     <t>Ministério da Saúde do Brasil</t>
   </si>
   <si>
-    <t>BR_AM_13_00805</t>
-  </si>
-  <si>
-    <t>Borba (Municipio), Amazonas, Brazil</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
-    <t>Hipertensão</t>
-  </si>
-  <si>
-    <t>Subcutâneo (local pretendido)</t>
-  </si>
-  <si>
-    <t>CORONAVAC</t>
-  </si>
-  <si>
-    <t>Sinovac</t>
-  </si>
-  <si>
-    <t>SIN</t>
-  </si>
-  <si>
-    <t>CV3425</t>
-  </si>
-  <si>
-    <t>Diluente A</t>
-  </si>
-  <si>
-    <t>UBS FHIR</t>
-  </si>
-  <si>
-    <t>R. Vacina Brasil, 100</t>
-  </si>
-  <si>
     <t>Febre</t>
   </si>
   <si>
@@ -428,15 +412,12 @@
     <t>Água Doce (Municipio), Santa Catarina, Brazil</t>
   </si>
   <si>
-    <t xml:space="preserve">febre (código: 10016558) </t>
-  </si>
-  <si>
-    <t>10 semanas</t>
-  </si>
-  <si>
     <t>PFIZER BIONTECH COVID-19 VACCINE</t>
   </si>
   <si>
+    <t>https://paho.org/fhir/esavi/CodeSystem/SistemasDeCodificacionCS</t>
+  </si>
+  <si>
     <t>Pfizer BioNTech</t>
   </si>
   <si>
@@ -446,107 +427,58 @@
     <t>VC18345</t>
   </si>
   <si>
-    <t>Caso 3</t>
-  </si>
-  <si>
-    <t>in-progress</t>
-  </si>
-  <si>
-    <t>BR_SP_35_50308</t>
-  </si>
-  <si>
-    <t>São Paulo (Municipio), Sao Paulo, Brazil</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>edemea na região da aplicação (código 10022061</t>
-  </si>
-  <si>
-    <t>JANSSEN COVID-19 VACCINE</t>
-  </si>
-  <si>
-    <t>Janssen Pharmaceuticals</t>
-  </si>
-  <si>
-    <t>JAP</t>
-  </si>
-  <si>
-    <t>JS99099</t>
-  </si>
-  <si>
-    <t>UBSF MedDRA</t>
-  </si>
-  <si>
-    <t>Av. Jaqueiras, 007</t>
-  </si>
-  <si>
-    <t>Caso 4</t>
-  </si>
-  <si>
-    <t>BR_PI_22_00459</t>
-  </si>
-  <si>
-    <t>Alvorada do Gurguéia (Municipio), Piaui, Brazil</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>edema na região da vacina (código:10022058)</t>
-  </si>
-  <si>
-    <t>BR_RJ_33_00704</t>
-  </si>
-  <si>
-    <t>Cabo Frio (Municipio), Rio de Janeiro, Brazil</t>
+    <t>UBSF Educador Paulo Freire</t>
+  </si>
+  <si>
+    <t>Av. Brasil, 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="4">
@@ -554,7 +486,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -569,83 +501,60 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -835,48 +744,103 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:DD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.5"/>
-    <col customWidth="1" min="2" max="2" width="6.25"/>
-    <col customWidth="1" min="3" max="3" width="11.5"/>
-    <col customWidth="1" min="4" max="4" width="8.38"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="6" width="42.5"/>
-    <col customWidth="1" min="7" max="7" width="30.38"/>
-    <col customWidth="1" min="8" max="8" width="58.13"/>
-    <col customWidth="1" min="9" max="9" width="36.75"/>
-    <col customWidth="1" min="10" max="10" width="66.5"/>
-    <col customWidth="1" min="11" max="11" width="11.25"/>
-    <col customWidth="1" min="12" max="12" width="13.0"/>
-    <col customWidth="1" min="13" max="13" width="16.0"/>
-    <col customWidth="1" min="14" max="14" width="26.75"/>
-    <col customWidth="1" min="15" max="15" width="10.88"/>
-    <col customWidth="1" min="16" max="16" width="15.5"/>
-    <col customWidth="1" min="17" max="17" width="49.25"/>
-    <col customWidth="1" min="18" max="18" width="36.5"/>
-    <col customWidth="1" min="19" max="19" width="11.5"/>
-    <col customWidth="1" min="20" max="20" width="13.5"/>
-    <col customWidth="1" min="21" max="21" width="4.75"/>
-    <col customWidth="1" min="22" max="22" width="24.63"/>
-    <col customWidth="1" min="23" max="23" width="11.75"/>
-    <col customWidth="1" min="24" max="24" width="62.38"/>
-    <col customWidth="1" min="25" max="25" width="70.0"/>
-    <col customWidth="1" min="44" max="44" width="23.13"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="10" max="10" width="66.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="49.28515625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="4.7109375" customWidth="1"/>
+    <col min="22" max="22" width="24.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="62.42578125" customWidth="1"/>
+    <col min="25" max="25" width="70" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" customWidth="1"/>
+    <col min="29" max="29" width="35.42578125" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" customWidth="1"/>
+    <col min="31" max="31" width="18" customWidth="1"/>
+    <col min="32" max="32" width="20.28515625" customWidth="1"/>
+    <col min="34" max="34" width="24.28515625" customWidth="1"/>
+    <col min="35" max="36" width="21.85546875" customWidth="1"/>
+    <col min="38" max="38" width="16.5703125" customWidth="1"/>
+    <col min="39" max="40" width="22.28515625" customWidth="1"/>
+    <col min="41" max="42" width="23.28515625" customWidth="1"/>
+    <col min="45" max="45" width="23.140625" customWidth="1"/>
+    <col min="48" max="48" width="52.42578125" customWidth="1"/>
+    <col min="49" max="49" width="17.5703125" customWidth="1"/>
+    <col min="50" max="50" width="53.140625" customWidth="1"/>
+    <col min="51" max="51" width="21.28515625" customWidth="1"/>
+    <col min="53" max="53" width="31.7109375" customWidth="1"/>
+    <col min="55" max="55" width="10.28515625" customWidth="1"/>
+    <col min="56" max="56" width="14.5703125" customWidth="1"/>
+    <col min="58" max="58" width="22.42578125" customWidth="1"/>
+    <col min="59" max="59" width="22.7109375" customWidth="1"/>
+    <col min="63" max="63" width="24.7109375" customWidth="1"/>
+    <col min="64" max="64" width="20.85546875" customWidth="1"/>
+    <col min="69" max="69" width="18.85546875" customWidth="1"/>
+    <col min="70" max="70" width="18.7109375" customWidth="1"/>
+    <col min="71" max="71" width="19" customWidth="1"/>
+    <col min="74" max="74" width="18.42578125" customWidth="1"/>
+    <col min="75" max="75" width="28.28515625" customWidth="1"/>
+    <col min="76" max="76" width="70" customWidth="1"/>
+    <col min="77" max="77" width="20.7109375" customWidth="1"/>
+    <col min="79" max="79" width="38.5703125" customWidth="1"/>
+    <col min="80" max="80" width="19.5703125" customWidth="1"/>
+    <col min="81" max="81" width="17" customWidth="1"/>
+    <col min="82" max="82" width="21.7109375" customWidth="1"/>
+    <col min="84" max="84" width="16.140625" customWidth="1"/>
+    <col min="89" max="89" width="19.42578125" customWidth="1"/>
+    <col min="90" max="90" width="15.85546875" customWidth="1"/>
+    <col min="91" max="91" width="18.28515625" customWidth="1"/>
+    <col min="92" max="92" width="22.5703125" customWidth="1"/>
+    <col min="93" max="93" width="25.7109375" customWidth="1"/>
+    <col min="94" max="94" width="22" customWidth="1"/>
+    <col min="97" max="97" width="19.28515625" customWidth="1"/>
+    <col min="98" max="98" width="22.5703125" customWidth="1"/>
+    <col min="101" max="101" width="19.85546875" customWidth="1"/>
+    <col min="102" max="102" width="20.42578125" customWidth="1"/>
+    <col min="103" max="103" width="27.28515625" customWidth="1"/>
+    <col min="104" max="104" width="32" customWidth="1"/>
+    <col min="105" max="105" width="23" customWidth="1"/>
+    <col min="106" max="106" width="20.7109375" customWidth="1"/>
+    <col min="107" max="107" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,13 +1067,13 @@
         <v>74</v>
       </c>
       <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="CA1" s="1" t="s">
         <v>76</v>
@@ -1198,10 +1162,13 @@
       <c r="DC1" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="DD1" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>106</v>
@@ -1209,477 +1176,172 @@
       <c r="G2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45006</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45006</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45006</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45006</v>
+      </c>
+      <c r="O2" s="8">
+        <v>225412637</v>
+      </c>
+      <c r="P2" s="1">
+        <v>215097588570009</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="T2" s="6">
+        <v>32144</v>
+      </c>
+      <c r="U2" s="1">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>44933</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>45213</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>15268625003</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>44995</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>44982.0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>44982.0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>44982.0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>44982.0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1.48639981E8</v>
-      </c>
-      <c r="P2" s="1">
-        <v>8.41793873920001E14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="BQ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>100016558</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>44995</v>
+      </c>
+      <c r="BU2" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="BV2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="3">
-        <v>36541.0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="X2" s="4">
-        <v>1.0029883E7</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>7.64295003E8</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU2" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AV2" s="7">
-        <v>121212.0</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>1.5268644002E10</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BC2" s="8">
-        <v>45083.0</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>45481.0</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>44982.0</v>
-      </c>
-      <c r="BH2" s="9">
-        <v>0.4340277777777778</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>121212.0</v>
-      </c>
-      <c r="BQ2" s="10">
-        <v>1.0002198E7</v>
-      </c>
-      <c r="BS2" s="3">
-        <v>44982.0</v>
-      </c>
-      <c r="BT2" s="9">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="BU2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>44996.0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>44996.0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>44996.0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>2.25412637E8</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2.15097588570009E14</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T3" s="8">
-        <v>32144.0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>7.64295003E8</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AV3" s="7">
-        <v>121213.0</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>1.5268625003E10</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>121213.0</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>44982.0</v>
-      </c>
-      <c r="BT3" s="9">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="BU3" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45001.0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>45002.0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>45001.0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>45001.0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>9.85412632E8</v>
-      </c>
-      <c r="P4" s="1">
-        <v>9.78996353510018E14</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" s="8">
-        <v>34336.0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>7.64295003E8</v>
-      </c>
-      <c r="AT4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU4" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AV4" s="7">
-        <v>121214.0</v>
-      </c>
-      <c r="AW4" s="12">
-        <v>1.5268640003E10</v>
-      </c>
-      <c r="AY4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AZ4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>45000.0</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>121214.0</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>1.0002198E7</v>
-      </c>
-      <c r="BS4" s="3">
-        <v>44982.0</v>
-      </c>
-      <c r="BT4" s="9">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="BU4" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2.83408729460001E14</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T5" s="8">
-        <v>31414.0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>7.64295003E8</v>
-      </c>
-      <c r="AY5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>9.52435209360004E14</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>7.64295003E8</v>
-      </c>
+      <c r="CF2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" location="EsaviMedDRACS-10029883" ref="X2"/>
-    <hyperlink r:id="rId3" location="RespuestaSiNoNosabeCS-2" ref="AC2"/>
+    <hyperlink ref="AV2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>